--- a/Controller/Controller.xlsx
+++ b/Controller/Controller.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Login</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Forecasted Cash Flow</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,6 +602,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Controller/Controller.xlsx
+++ b/Controller/Controller.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>Login</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>testomkar</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,6 +609,9 @@
       <c r="E14" t="s">
         <v>20</v>
       </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
